--- a/Design_DB_DE_model.xlsx
+++ b/Design_DB_DE_model.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6525" windowHeight="5730" tabRatio="382"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6528" windowHeight="5736" tabRatio="382" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="New_update" sheetId="2" r:id="rId1"/>
     <sheet name="Table Details" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="304">
   <si>
     <t>HS0001</t>
   </si>
@@ -938,6 +939,9 @@
   </si>
   <si>
     <t>sub_stage</t>
+  </si>
+  <si>
+    <t>request</t>
   </si>
 </sst>
 </file>
@@ -1651,49 +1655,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:75" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="64" t="s">
         <v>154</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="67" t="s">
         <v>191</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>198</v>
       </c>
@@ -1879,7 +1883,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" s="72" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="73"/>
       <c r="B6" s="73"/>
       <c r="C6" s="73"/>
@@ -1901,12 +1905,12 @@
       <c r="S6" s="76"/>
       <c r="T6" s="77"/>
     </row>
-    <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="78" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:75" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" s="66" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>211</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>285</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67" t="s">
         <v>285</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73"/>
       <c r="B11" s="73"/>
       <c r="C11" s="73"/>
@@ -2664,12 +2668,12 @@
       <c r="BV11" s="73"/>
       <c r="BW11" s="73"/>
     </row>
-    <row r="12" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:75" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="58" t="s">
         <v>155</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:75" s="80" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" s="80" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>148</v>
       </c>
@@ -2700,7 +2704,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>149</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>44854</v>
       </c>
     </row>
-    <row r="16" spans="1:75" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>150</v>
       </c>
@@ -2746,7 +2750,7 @@
         <v>49674</v>
       </c>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>151</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>44328</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
         <v>295</v>
       </c>
@@ -2792,17 +2796,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="42" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
         <v>46</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
@@ -2890,7 +2894,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -2978,24 +2982,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="58" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="59" t="s">
         <v>46</v>
       </c>
@@ -3039,7 +3043,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>48</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>48</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>48</v>
       </c>
@@ -3207,7 +3211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>48</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>48</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>48</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>48</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
@@ -3463,15 +3467,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E42" s="12"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="59" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>48</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>48</v>
       </c>
@@ -3599,7 +3603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="49" t="s">
         <v>55</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>55</v>
       </c>
@@ -3683,12 +3687,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="59" t="s">
         <v>46</v>
       </c>
@@ -3732,7 +3736,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
@@ -3774,7 +3778,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>48</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>48</v>
       </c>
@@ -3858,16 +3862,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H55" s="18"/>
     </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="32" t="s">
         <v>102</v>
       </c>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="1:14" s="42" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="59" t="s">
         <v>46</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>48</v>
       </c>
@@ -3953,7 +3957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>48</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>48</v>
       </c>
@@ -4079,7 +4083,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -4121,13 +4125,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>127</v>
       </c>
       <c r="H63" s="37"/>
     </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>48</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>48</v>
       </c>
@@ -4253,7 +4257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>48</v>
       </c>
@@ -4295,7 +4299,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>128</v>
       </c>
@@ -4306,7 +4310,7 @@
       <c r="L68" s="40"/>
       <c r="M68" s="40"/>
     </row>
-    <row r="69" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>48</v>
       </c>
@@ -4348,7 +4352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>48</v>
       </c>
@@ -4390,21 +4394,21 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P4" r:id="rId1"/>
@@ -4424,45 +4428,45 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="42" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>154</v>
       </c>
@@ -4521,7 +4525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4584,12 +4588,12 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="58" t="s">
         <v>155</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="57" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" s="57" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
         <v>148</v>
       </c>
@@ -4638,7 +4642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>149</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>150</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>151</v>
       </c>
@@ -4761,17 +4765,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="42" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>46</v>
       </c>
@@ -4815,7 +4819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>55</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -4947,24 +4951,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="58" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>46</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>48</v>
       </c>
@@ -5050,7 +5054,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
@@ -5092,7 +5096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>48</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>48</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>48</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>48</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
@@ -5388,7 +5392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="15" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>48</v>
       </c>
@@ -5432,15 +5436,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E37" s="12"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="59" t="s">
         <v>46</v>
       </c>
@@ -5484,7 +5488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>48</v>
       </c>
@@ -5526,7 +5530,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>48</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>55</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>55</v>
       </c>
@@ -5652,12 +5656,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="42" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="59" t="s">
         <v>46</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>48</v>
       </c>
@@ -5743,7 +5747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>48</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>48</v>
       </c>
@@ -5827,16 +5831,16 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H50" s="18"/>
     </row>
-    <row r="51" spans="1:14" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="32" t="s">
         <v>102</v>
       </c>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="1:14" s="42" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="59" t="s">
         <v>46</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>48</v>
       </c>
@@ -5922,7 +5926,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>48</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>48</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>48</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>48</v>
       </c>
@@ -6090,13 +6094,13 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41" t="s">
         <v>127</v>
       </c>
       <c r="H58" s="37"/>
     </row>
-    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>48</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>48</v>
       </c>
@@ -6180,7 +6184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>48</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>48</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>128</v>
       </c>
@@ -6275,7 +6279,7 @@
       <c r="L63" s="40"/>
       <c r="M63" s="40"/>
     </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>48</v>
       </c>
@@ -6317,7 +6321,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>48</v>
       </c>
@@ -6359,23 +6363,50 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Design_DB_DE_model.xlsx
+++ b/Design_DB_DE_model.xlsx
@@ -2,19 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anmv2\Desktop\drawio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6528" windowHeight="5736" tabRatio="382" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6528" windowHeight="3936" tabRatio="782" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="New_update" sheetId="2" r:id="rId1"/>
-    <sheet name="Table Details" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Table_details_V1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table_details_V2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table_details_V3" sheetId="3" r:id="rId3"/>
+    <sheet name="INPUT_CAL_SCORE" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="INPUT_FOR_MODELING" sheetId="7" r:id="rId5"/>
+    <sheet name="INPUT_FOR_SCORING" sheetId="5" r:id="rId6"/>
+    <sheet name="MAIN_PROCESS" sheetId="6" r:id="rId7"/>
+    <sheet name="OUTPUT_PROCESS_SCORE" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="387">
   <si>
     <t>HS0001</t>
   </si>
@@ -941,7 +947,290 @@
     <t>sub_stage</t>
   </si>
   <si>
-    <t>request</t>
+    <t>input_request</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>create_object</t>
+  </si>
+  <si>
+    <t>2024-12-16  12:34:56</t>
+  </si>
+  <si>
+    <t>P_0001</t>
+  </si>
+  <si>
+    <t>{
+    "loanHash": "940791df-293f-4cf6-bf07-152f70c5fdc0",
+    "identificationExpiredDate": "18/10/2034",
+    "cardIssueType": "physical",
+    "residenceType": None,
+    "currAddProvinceCode": "01",
+    "specializedBank": None,
+    "source": None,
+    "requestTime": None
+}</t>
+  </si>
+  <si>
+    <t>P_0002</t>
+  </si>
+  <si>
+    <t>2024-12-16  12:34:57</t>
+  </si>
+  <si>
+    <t>P_0003</t>
+  </si>
+  <si>
+    <t>2024-12-16  12:34:58</t>
+  </si>
+  <si>
+    <t>RECEIVED_REQUEST</t>
+  </si>
+  <si>
+    <t>input_id_detail</t>
+  </si>
+  <si>
+    <t>INP_0001</t>
+  </si>
+  <si>
+    <t>INPUT_CAL_SCORE</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Model_App</t>
+  </si>
+  <si>
+    <t>sub_process_id</t>
+  </si>
+  <si>
+    <t>updated_time</t>
+  </si>
+  <si>
+    <t>SP_0001</t>
+  </si>
+  <si>
+    <t>MDL_0125</t>
+  </si>
+  <si>
+    <t>2024-12-16 12:34:56</t>
+  </si>
+  <si>
+    <t>SP_0002</t>
+  </si>
+  <si>
+    <t>INP_0002</t>
+  </si>
+  <si>
+    <t>MDL_035</t>
+  </si>
+  <si>
+    <t>2024-12-16 15:37:57</t>
+  </si>
+  <si>
+    <t>SP_0003</t>
+  </si>
+  <si>
+    <t>INP_0003</t>
+  </si>
+  <si>
+    <t>APD_762</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>MAIN_PROCESS</t>
+  </si>
+  <si>
+    <t>INPUT_FOR_SCORING</t>
+  </si>
+  <si>
+    <t>cus_name</t>
+  </si>
+  <si>
+    <t>Mai Van An</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>19/08/1990</t>
+  </si>
+  <si>
+    <t>INPUT_FOR_MODELING</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>casa_in_3m</t>
+  </si>
+  <si>
+    <t>Way4</t>
+  </si>
+  <si>
+    <t>DE_Auto</t>
+  </si>
+  <si>
+    <t>2024-12-16  12:34:54</t>
+  </si>
+  <si>
+    <t>2024-12-16  12:34:55</t>
+  </si>
+  <si>
+    <t>DE_Calculate</t>
+  </si>
+  <si>
+    <t>TIEU_CHI_GHEP</t>
+  </si>
+  <si>
+    <t>PROCESS_STEP</t>
+  </si>
+  <si>
+    <t>HS_0001</t>
+  </si>
+  <si>
+    <t>HS_0002</t>
+  </si>
+  <si>
+    <t>is_tolerance</t>
+  </si>
+  <si>
+    <t>is_override</t>
+  </si>
+  <si>
+    <t>P_0004</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ví dụ cho cùng 1 lần gọi lên DE nhưng sinh ra 2 tiến trình chấm điểm </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ cho luồng thường </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(có thể source không được MA truyền lên)</t>
+    </r>
+  </si>
+  <si>
+    <t>SP_0004</t>
+  </si>
+  <si>
+    <t>APTX_4868</t>
+  </si>
+  <si>
+    <t>Ví dụ cho các tiêu chí đơn và kép (phái sinh)</t>
+  </si>
+  <si>
+    <t>3RD</t>
+  </si>
+  <si>
+    <t>Ví dụ cho luồng tự động. DE có thể lấy các thông tin từ các nguồn khác nhau thể hiện ở cột Source</t>
+  </si>
+  <si>
+    <t>MDL123</t>
+  </si>
+  <si>
+    <t>3RD_001</t>
+  </si>
+  <si>
+    <t>3RD_002</t>
+  </si>
+  <si>
+    <t>SCORE_MODEL</t>
+  </si>
+  <si>
+    <t>Ví dụ về các thông tin từ 3RD</t>
+  </si>
+  <si>
+    <t>Ví dụ lưu thông tin tiêu chí phụ</t>
+  </si>
+  <si>
+    <t>SCQ_14</t>
+  </si>
+  <si>
+    <t>SCQ_91</t>
+  </si>
+  <si>
+    <t>SCQ_094</t>
+  </si>
+  <si>
+    <t>2 năm</t>
+  </si>
+  <si>
+    <t>Ví dụ lưu thông tin Group Score</t>
+  </si>
+  <si>
+    <t>Ví dụ lưu thông tin FinalScore</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>S+</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>MODEL_APP</t>
+  </si>
+  <si>
+    <t>DE.FINAL.SCORE</t>
+  </si>
+  <si>
+    <t>DE.FINAL.RANK</t>
+  </si>
+  <si>
+    <t>DMPS_CAL</t>
+  </si>
+  <si>
+    <t>DMPS_CAL.GROUP_SCORE.CASA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ thông tin từ lần chấm trước được đưa vào để quyết định ra model cho lần chấm sau </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(tự động only)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chỉ có trên luồng tự động, luồng manual phải có cách link để fill vào đây</t>
   </si>
 </sst>
 </file>
@@ -955,7 +1244,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1045,8 +1334,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1089,8 +1421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1128,6 +1466,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1135,7 +1600,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1370,6 +1835,215 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1653,10 +2327,1980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:W80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>35017</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="5">
+        <v>125000000</v>
+      </c>
+      <c r="O4" s="5">
+        <v>25000000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1500000</v>
+      </c>
+      <c r="S4" s="5">
+        <v>50000000</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="57" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44632</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="6">
+        <v>12000000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>123000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1500000</v>
+      </c>
+      <c r="J11" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="42" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="16">
+        <v>100000000</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="15">
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1</v>
+      </c>
+      <c r="M19" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="9">
+        <v>95000000</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="16">
+        <v>19000000</v>
+      </c>
+      <c r="K28" s="23">
+        <v>3</v>
+      </c>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="9">
+        <v>300000000</v>
+      </c>
+      <c r="K29" s="11">
+        <v>2</v>
+      </c>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" s="23">
+        <v>1</v>
+      </c>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J31" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="K31" s="11">
+        <v>3</v>
+      </c>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" s="16">
+        <v>5000000000</v>
+      </c>
+      <c r="K32" s="23">
+        <v>4</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" s="9">
+        <v>5000000000</v>
+      </c>
+      <c r="K33" s="8">
+        <v>5</v>
+      </c>
+      <c r="L33" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="15">
+        <v>0</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="16">
+        <v>3</v>
+      </c>
+      <c r="K34" s="15">
+        <v>1</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="8">
+        <v>0</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J35" s="9">
+        <v>3</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2</v>
+      </c>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="15">
+        <v>1</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J36" s="16">
+        <v>4</v>
+      </c>
+      <c r="K36" s="15">
+        <v>3</v>
+      </c>
+      <c r="L36" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="M36" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M39" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N39" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J40" s="47">
+        <v>3.6</v>
+      </c>
+      <c r="K40" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="K41" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="49">
+        <v>1</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="49">
+        <v>0</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G42" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="52">
+        <v>5.9</v>
+      </c>
+      <c r="K42" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="N42" s="49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="K43" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L46" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M46" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N46" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="J47" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" s="46">
+        <v>3</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="15">
+        <v>0</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48" s="55">
+        <v>1</v>
+      </c>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="J49" s="56">
+        <v>3.45</v>
+      </c>
+      <c r="K49" s="46">
+        <v>5</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52" spans="1:14" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L52" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="N52" s="42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="K53" s="11">
+        <v>2</v>
+      </c>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="15">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="15">
+        <v>0</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J54" s="15">
+        <v>15</v>
+      </c>
+      <c r="K54" s="15">
+        <v>3</v>
+      </c>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N54" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="8">
+        <v>1</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J55" s="33">
+        <v>190000000</v>
+      </c>
+      <c r="K55" s="8">
+        <v>1</v>
+      </c>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="15">
+        <v>0</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="8">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="37"/>
+    </row>
+    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="15">
+        <v>0</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="15">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K59" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" s="36"/>
+      <c r="M59" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N59" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="8">
+        <v>0</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="8">
+        <v>1</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="15">
+        <v>1</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="15">
+        <v>2</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" s="43">
+        <v>10.9</v>
+      </c>
+      <c r="K61" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N61" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="8">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" s="29"/>
+      <c r="M62" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="37"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+    </row>
+    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="15">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" s="45">
+        <v>13.4</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" s="34"/>
+      <c r="M64" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="N64" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="8">
+        <v>1</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="8">
+        <v>1</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L65" s="29"/>
+      <c r="M65" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW85"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4420,1993 +7064,2524 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W80"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:M80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L67" sqref="L67"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+    <row r="1" spans="2:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="112"/>
+    </row>
+    <row r="2" spans="2:11" s="133" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="42" t="s">
+      <c r="E2" s="109" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="109" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="I2" s="109" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="86" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="117">
+        <v>0</v>
+      </c>
+      <c r="F3" s="117">
+        <v>0</v>
+      </c>
+      <c r="G3" s="117">
+        <v>1</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3" s="155">
+        <v>0</v>
+      </c>
+      <c r="J3" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="120">
+        <v>0</v>
+      </c>
+      <c r="F4" s="120">
+        <v>0</v>
+      </c>
+      <c r="G4" s="120">
+        <v>1</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="I4" s="156">
+        <v>1</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="117">
+        <v>1</v>
+      </c>
+      <c r="F5" s="117">
+        <v>0</v>
+      </c>
+      <c r="G5" s="117">
+        <v>2</v>
+      </c>
+      <c r="H5" s="110" t="s">
+        <v>380</v>
+      </c>
+      <c r="I5" s="155">
+        <v>1</v>
+      </c>
+      <c r="J5" s="110" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="117" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="118" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="120">
+        <v>0</v>
+      </c>
+      <c r="F6" s="120">
+        <v>1</v>
+      </c>
+      <c r="G6" s="120">
+        <v>3</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="I6" s="156">
+        <v>0</v>
+      </c>
+      <c r="J6" s="113" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="120" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="134" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
+    </row>
+    <row r="12" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="123"/>
+      <c r="C13" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="123"/>
+      <c r="C14" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="118">
+        <v>12345</v>
+      </c>
+      <c r="G14" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="123"/>
+      <c r="C15" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="D15" s="117" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="117" t="s">
+        <v>336</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="123"/>
+      <c r="C16" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="D16" s="120" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>338</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="126" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="129"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="127"/>
+    </row>
+    <row r="18" spans="2:8" s="126" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="129"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="127"/>
+    </row>
+    <row r="19" spans="2:8" s="126" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="111" t="s">
+        <v>363</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E19" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="111"/>
+      <c r="C20" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="111"/>
+      <c r="C21" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="120" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="118">
+        <v>12345</v>
+      </c>
+      <c r="G21" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="111"/>
+      <c r="C22" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D22" s="117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>336</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>337</v>
+      </c>
+      <c r="G22" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="111"/>
+      <c r="C23" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" s="120" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="G23" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="111"/>
+      <c r="C24" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="F24" s="128">
+        <v>2468000</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="145" t="s">
+        <v>385</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="D27" s="109" t="s">
+        <v>319</v>
+      </c>
+      <c r="E27" s="109" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="109" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="H27" s="109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="145"/>
+      <c r="C28" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="F28" s="117">
+        <v>13.5</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H28" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="145"/>
+      <c r="C29" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="120" t="s">
+        <v>382</v>
+      </c>
+      <c r="F29" s="118" t="s">
+        <v>377</v>
+      </c>
+      <c r="G29" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H29" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="145"/>
+      <c r="C30" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D30" s="117" t="s">
+        <v>326</v>
+      </c>
+      <c r="E30" s="146" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" s="98">
+        <v>25000000</v>
+      </c>
+      <c r="G30" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H30" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="145"/>
+      <c r="C31" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>362</v>
+      </c>
+      <c r="E31" s="120" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="G31" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="145"/>
+      <c r="C32" s="117" t="s">
+        <v>330</v>
+      </c>
+      <c r="D32" s="127" t="s">
+        <v>343</v>
+      </c>
+      <c r="E32" s="117" t="s">
+        <v>342</v>
+      </c>
+      <c r="F32" s="128">
+        <v>2468000</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="H32" s="117" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="134" t="s">
+        <v>334</v>
+      </c>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="134"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="134"/>
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="134"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="147" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="109" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" s="89" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="121"/>
+      <c r="C37" s="122" t="s">
+        <v>323</v>
+      </c>
+      <c r="D37" s="122" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="F37" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="I37" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="J37" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="152">
+        <v>1</v>
+      </c>
+      <c r="L37" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" s="102" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="121"/>
+      <c r="C38" s="122" t="s">
+        <v>326</v>
+      </c>
+      <c r="D38" s="122" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="F38" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="100">
+        <v>50000000</v>
+      </c>
+      <c r="I38" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="152">
+        <v>0</v>
+      </c>
+      <c r="L38" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="121"/>
+      <c r="C39" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="152"/>
+      <c r="L39" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="M39" s="102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="121"/>
+      <c r="C40" s="72" t="s">
+        <v>359</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>360</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="149" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="152"/>
+      <c r="L40" s="151" t="s">
+        <v>325</v>
+      </c>
+      <c r="M40" s="102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="121"/>
+      <c r="K41" s="153" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K42" s="154"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="134" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="125"/>
+    </row>
+    <row r="47" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="136" t="s">
+        <v>361</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="136"/>
+      <c r="C48" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D48" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="98">
+        <v>95000000</v>
+      </c>
+      <c r="H48" s="97">
+        <v>2</v>
+      </c>
+      <c r="I48" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="136"/>
+      <c r="C49" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D49" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="139">
+        <v>19000000</v>
+      </c>
+      <c r="H49" s="138">
+        <v>3</v>
+      </c>
+      <c r="I49" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J49" s="141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="136"/>
+      <c r="C50" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D50" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="98">
+        <v>300000000</v>
+      </c>
+      <c r="H50" s="97">
+        <v>5</v>
+      </c>
+      <c r="I50" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J50" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="136"/>
+      <c r="C51" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="139">
+        <v>5000000000</v>
+      </c>
+      <c r="H51" s="138">
         <v>4</v>
       </c>
-      <c r="G3" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="42" t="s">
+      <c r="I51" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J51" s="141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="136"/>
+      <c r="C52" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="98">
+        <v>3</v>
+      </c>
+      <c r="H52" s="97">
+        <v>2</v>
+      </c>
+      <c r="I52" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J52" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="136" t="s">
+        <v>368</v>
+      </c>
+      <c r="C56" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D56" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E56" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="136"/>
+      <c r="C57" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D57" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" s="98">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="97">
+        <v>2</v>
+      </c>
+      <c r="I57" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="136"/>
+      <c r="C58" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D58" s="138" t="s">
+        <v>362</v>
+      </c>
+      <c r="E58" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="114" t="s">
+        <v>366</v>
+      </c>
+      <c r="G58" s="139">
+        <v>25000000</v>
+      </c>
+      <c r="H58" s="138">
+        <v>3</v>
+      </c>
+      <c r="I58" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J58" s="141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="136"/>
+      <c r="C59" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="97" t="s">
+        <v>362</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>367</v>
+      </c>
+      <c r="F59" s="90" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" s="98">
+        <v>6.9</v>
+      </c>
+      <c r="H59" s="97">
+        <v>5</v>
+      </c>
+      <c r="I59" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J59" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63" s="136" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="J63" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64" s="136"/>
+      <c r="C64" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D64" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G64" s="98" t="s">
+        <v>373</v>
+      </c>
+      <c r="H64" s="97">
+        <v>5</v>
+      </c>
+      <c r="I64" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J64" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="136"/>
+      <c r="C65" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="138" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="114" t="s">
+        <v>371</v>
+      </c>
+      <c r="G65" s="139">
+        <v>90000</v>
+      </c>
+      <c r="H65" s="138">
+        <v>3</v>
+      </c>
+      <c r="I65" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J65" s="141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B66" s="136"/>
+      <c r="C66" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="90" t="s">
+        <v>372</v>
+      </c>
+      <c r="G66" s="98">
+        <v>18</v>
+      </c>
+      <c r="H66" s="97">
+        <v>2</v>
+      </c>
+      <c r="I66" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B70" s="136" t="s">
+        <v>374</v>
+      </c>
+      <c r="C70" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D70" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E70" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F70" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I70" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="J70" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="136"/>
+      <c r="C71" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D71" s="97" t="s">
+        <v>383</v>
+      </c>
+      <c r="E71" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G71" s="98">
+        <v>25000000</v>
+      </c>
+      <c r="H71" s="97">
+        <v>5</v>
+      </c>
+      <c r="I71" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J71" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B72" s="136"/>
+      <c r="C72" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D72" s="138" t="s">
+        <v>383</v>
+      </c>
+      <c r="E72" s="138" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="G72" s="139">
         <v>15</v>
       </c>
-      <c r="J3" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>35017</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="5">
-        <v>125000000</v>
-      </c>
-      <c r="O4" s="5">
-        <v>25000000</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>50000000</v>
-      </c>
-      <c r="R4" s="5">
-        <v>1500000</v>
-      </c>
-      <c r="S4" s="5">
-        <v>50000000</v>
-      </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="57" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="H72" s="138">
+        <v>3</v>
+      </c>
+      <c r="I72" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J72" s="141" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="136"/>
+      <c r="C73" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D73" s="97" t="s">
+        <v>383</v>
+      </c>
+      <c r="E73" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="G73" s="98">
+        <v>190000</v>
+      </c>
+      <c r="H73" s="97">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="F10" s="4">
-        <v>44632</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="6">
-        <v>12000000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>123000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1500000</v>
-      </c>
-      <c r="J11" s="13">
-        <v>50000000</v>
-      </c>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="62" t="s">
+      <c r="I73" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J73" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D74" s="97"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="73"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B77" s="136" t="s">
+        <v>375</v>
+      </c>
+      <c r="C77" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="D77" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="E77" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F77" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="H77" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="I77" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="J77" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="136"/>
+      <c r="C78" s="124" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="97" t="s">
+        <v>376</v>
+      </c>
+      <c r="E78" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G78" s="142">
+        <v>13.5</v>
+      </c>
+      <c r="H78" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="I78" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="J78" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="136"/>
+      <c r="C79" s="137" t="s">
+        <v>323</v>
+      </c>
+      <c r="D79" s="138" t="s">
+        <v>376</v>
+      </c>
+      <c r="E79" s="138" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="G79" s="139" t="s">
+        <v>377</v>
+      </c>
+      <c r="H79" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="42" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N17" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="I18" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="I79" s="140" t="s">
+        <v>306</v>
+      </c>
+      <c r="J79" s="141" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="16">
-        <v>100000000</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="15">
-        <v>1</v>
-      </c>
-      <c r="L19" s="15">
-        <v>1</v>
-      </c>
-      <c r="M19" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="58" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M26" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N26" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="9">
-        <v>95000000</v>
-      </c>
-      <c r="K27" s="11">
-        <v>2</v>
-      </c>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="15">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="16">
-        <v>19000000</v>
-      </c>
-      <c r="K28" s="23">
-        <v>3</v>
-      </c>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="9">
-        <v>300000000</v>
-      </c>
-      <c r="K29" s="11">
-        <v>2</v>
-      </c>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="15">
-        <v>0</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="23">
-        <v>1</v>
-      </c>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="9">
-        <v>5000000000</v>
-      </c>
-      <c r="K31" s="11">
-        <v>3</v>
-      </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="15">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J32" s="16">
-        <v>5000000000</v>
-      </c>
-      <c r="K32" s="23">
-        <v>4</v>
-      </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N32" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" s="9">
-        <v>5000000000</v>
-      </c>
-      <c r="K33" s="8">
-        <v>5</v>
-      </c>
-      <c r="L33" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="M33" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="15">
-        <v>0</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="15">
-        <v>0</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I34" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J34" s="16">
-        <v>3</v>
-      </c>
-      <c r="K34" s="15">
-        <v>1</v>
-      </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N34" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="9">
-        <v>3</v>
-      </c>
-      <c r="K35" s="8">
-        <v>2</v>
-      </c>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="15" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="15">
-        <v>1</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E36" s="15">
-        <v>1</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="I36" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J36" s="16">
-        <v>4</v>
-      </c>
-      <c r="K36" s="15">
-        <v>3</v>
-      </c>
-      <c r="L36" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="M36" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N36" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L39" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M39" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N39" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="8">
-        <v>1</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="47">
-        <v>3.6</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="15">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I41" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="J41" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="K41" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" s="49" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="49">
-        <v>1</v>
-      </c>
-      <c r="D42" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="52">
-        <v>5.9</v>
-      </c>
-      <c r="K42" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="N42" s="49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="15">
-        <v>1</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="15">
-        <v>0</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J43" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="K43" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="N43" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="42" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L46" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M46" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N46" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="8">
-        <v>1</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="K47" s="46">
-        <v>3</v>
-      </c>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" s="15">
-        <v>1</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="15">
-        <v>0</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="G48" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="55">
-        <v>1</v>
-      </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="N48" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="8">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G49" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J49" s="56">
-        <v>3.45</v>
-      </c>
-      <c r="K49" s="46">
-        <v>5</v>
-      </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="H50" s="18"/>
-    </row>
-    <row r="51" spans="1:14" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:14" s="42" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="E52" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="J52" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="K52" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L52" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M52" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="N52" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="8">
-        <v>1</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G53" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J53" s="9">
-        <v>25000000</v>
-      </c>
-      <c r="K53" s="11">
-        <v>2</v>
-      </c>
-      <c r="L53" s="29"/>
-      <c r="M53" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="15">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="15">
-        <v>0</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="15">
-        <v>15</v>
-      </c>
-      <c r="K54" s="15">
-        <v>3</v>
-      </c>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N54" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="8">
-        <v>1</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="J55" s="33">
-        <v>190000000</v>
-      </c>
-      <c r="K55" s="8">
-        <v>1</v>
-      </c>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="15">
-        <v>0</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="15">
-        <v>0</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N56" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="37"/>
-    </row>
-    <row r="59" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="15">
-        <v>0</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E59" s="15">
-        <v>1</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H59" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="K59" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L59" s="36"/>
-      <c r="M59" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="8">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J60" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="15">
-        <v>1</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="15">
-        <v>2</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J61" s="43">
-        <v>10.9</v>
-      </c>
-      <c r="K61" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="8">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="8">
-        <v>2</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="H63" s="37"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="39"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-    </row>
-    <row r="64" spans="1:14" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="15">
-        <v>1</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E64" s="15">
-        <v>1</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" s="45">
-        <v>13.4</v>
-      </c>
-      <c r="K64" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="N64" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="8">
-        <v>1</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E65" s="8">
-        <v>1</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="K65" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="136"/>
+      <c r="C80" s="124"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="90"/>
+      <c r="G80" s="98"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="93"/>
+    </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B19:B24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="1:4" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="72">
+        <v>1</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="72">
+        <v>2</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="72">
+        <v>3</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="72">
+        <v>4</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F12"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" customWidth="1"/>
+    <col min="4" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="97"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="93"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="85">
+        <v>12345</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F4" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="97"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" s="97"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="93"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="93"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="85">
+        <v>12345</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="104">
+        <v>2468000</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>344</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I6"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="97">
+        <v>1</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="98">
+        <v>95000000</v>
+      </c>
+      <c r="G3" s="97">
+        <v>2</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="97">
+        <v>2</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="98">
+        <v>19000000</v>
+      </c>
+      <c r="G4" s="97">
+        <v>3</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="97">
+        <v>3</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="98">
+        <v>300000000</v>
+      </c>
+      <c r="G5" s="97">
+        <v>5</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="97">
+        <v>4</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="98">
+        <v>5000000000</v>
+      </c>
+      <c r="G6" s="97">
+        <v>4</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="I6" s="93" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B7" s="97">
+        <v>5</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:K5"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="72" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="72" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
-        <v>303</v>
+      <c r="C2" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="H3" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" s="102" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="100">
+        <v>50000000</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" s="102" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="F5" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="K5" s="102" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="89" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="98">
+        <v>95000000</v>
+      </c>
+      <c r="F3" s="97">
+        <v>2</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="98">
+        <v>19000000</v>
+      </c>
+      <c r="F4" s="97">
+        <v>3</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="97">
+        <v>5</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="106">
+        <v>5000000000</v>
+      </c>
+      <c r="F6" s="97">
+        <v>4</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="100">
+        <v>25000000</v>
+      </c>
+      <c r="F7" s="97">
+        <v>5</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="100">
+        <v>1900000000</v>
+      </c>
+      <c r="F8" s="97">
+        <v>6</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="97">
+        <v>15</v>
+      </c>
+      <c r="F9" s="97">
+        <v>7</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="97">
+        <v>8</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="97" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="97">
+        <v>9</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Design_DB_DE_model.xlsx
+++ b/Design_DB_DE_model.xlsx
@@ -9,18 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6528" windowHeight="3936" tabRatio="782" firstSheet="1" activeTab="2"/>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13512" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6528" windowHeight="3936" tabRatio="655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table_details_V1" sheetId="1" r:id="rId1"/>
     <sheet name="Table_details_V2" sheetId="2" r:id="rId2"/>
     <sheet name="Table_details_V3" sheetId="3" r:id="rId3"/>
     <sheet name="INPUT_CAL_SCORE" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="INPUT_FOR_MODELING" sheetId="7" r:id="rId5"/>
-    <sheet name="INPUT_FOR_SCORING" sheetId="5" r:id="rId6"/>
-    <sheet name="MAIN_PROCESS" sheetId="6" r:id="rId7"/>
-    <sheet name="OUTPUT_PROCESS_SCORE" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="393">
   <si>
     <t>HS0001</t>
   </si>
@@ -1001,9 +996,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>ORIGINAL</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -1028,9 +1020,6 @@
     <t>SP_0002</t>
   </si>
   <si>
-    <t>INP_0002</t>
-  </si>
-  <si>
     <t>MDL_035</t>
   </si>
   <si>
@@ -1040,9 +1029,6 @@
     <t>SP_0003</t>
   </si>
   <si>
-    <t>INP_0003</t>
-  </si>
-  <si>
     <t>APD_762</t>
   </si>
   <si>
@@ -1052,9 +1038,6 @@
     <t>MAIN_PROCESS</t>
   </si>
   <si>
-    <t>INPUT_FOR_SCORING</t>
-  </si>
-  <si>
     <t>cus_name</t>
   </si>
   <si>
@@ -1082,18 +1065,6 @@
     <t>DE_Auto</t>
   </si>
   <si>
-    <t>2024-12-16  12:34:54</t>
-  </si>
-  <si>
-    <t>2024-12-16  12:34:55</t>
-  </si>
-  <si>
-    <t>DE_Calculate</t>
-  </si>
-  <si>
-    <t>TIEU_CHI_GHEP</t>
-  </si>
-  <si>
     <t>PROCESS_STEP</t>
   </si>
   <si>
@@ -1119,22 +1090,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ví dụ cho cùng 1 lần gọi lên DE nhưng sinh ra 2 tiến trình chấm điểm </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ví dụ cho luồng thường </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(có thể source không được MA truyền lên)</t>
-    </r>
   </si>
   <si>
     <t>SP_0004</t>
@@ -1230,7 +1185,78 @@
     </r>
   </si>
   <si>
-    <t>Chỉ có trên luồng tự động, luồng manual phải có cách link để fill vào đây</t>
+    <t>Đối với luồng tự động thì Hồ sơ với is_drop = 0 sẽ là lần chấm cuối cùng. Còn đối với luồng thường thì phụ thuộc vào DataBase của Model để lấy thông tin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ví dụ cho luồng thường </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(có thể source không được MA truyền lên phải bóc dựa vào request)</t>
+    </r>
+  </si>
+  <si>
+    <t>Chỉ có trên hinh thuc tự động, hinh thuc manual phải có cách link để fill vào đây</t>
+  </si>
+  <si>
+    <t>effect_detail</t>
+  </si>
+  <si>
+    <t>TOLERANCE</t>
+  </si>
+  <si>
+    <t>ORIGINAL</t>
+  </si>
+  <si>
+    <t>OVERRIDE</t>
+  </si>
+  <si>
+    <t>{
+     "rank_choose": 4,
+     "old": 3
+}</t>
+  </si>
+  <si>
+    <t>DEPEND_TOLERANCE</t>
+  </si>
+  <si>
+    <t>{
+     "old": 2
+}</t>
+  </si>
+  <si>
+    <t>{
+     "old": 2,
+     "depend_on": "Q0325"
+}</t>
+  </si>
+  <si>
+    <t>DEPEND_OVERRIDE</t>
+  </si>
+  <si>
+    <t>{
+     "old": 2,
+     "depend_on": "Q1119"
+}</t>
+  </si>
+  <si>
+    <t>FORCE_OVERRIDE</t>
+  </si>
+  <si>
+    <t>{
+     "old": 13.5,
+}</t>
+  </si>
+  <si>
+    <t>Ví dụ cho áp dụng Dung sai/ Override và các tiêu chí bị thay đổi kéo theo</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1492,15 +1518,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1600,7 +1617,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1836,212 +1853,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="17" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2333,7 +2366,6 @@
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4296,11 +4328,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:BW85"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="1">
-      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7067,13 +7096,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:M80"/>
+  <dimension ref="B1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L67" sqref="L67"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7084,576 +7110,579 @@
     <col min="5" max="5" width="22.6640625" customWidth="1"/>
     <col min="6" max="7" width="20.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.77734375" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" customWidth="1"/>
     <col min="12" max="13" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="132" t="s">
+    <row r="1" spans="2:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="153" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="112"/>
-    </row>
-    <row r="2" spans="2:11" s="133" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="109" t="s">
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="98"/>
+    </row>
+    <row r="2" spans="2:13" s="116" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="109" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" s="109" t="s">
+      <c r="E2" s="96" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" s="85" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="101" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="103">
+        <v>0</v>
+      </c>
+      <c r="F3" s="103">
+        <v>0</v>
+      </c>
+      <c r="G3" s="103">
+        <v>1</v>
+      </c>
+      <c r="H3" s="97" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3" s="132">
+        <v>0</v>
+      </c>
+      <c r="J3" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="106">
+        <v>0</v>
+      </c>
+      <c r="F4" s="106">
+        <v>0</v>
+      </c>
+      <c r="G4" s="106">
+        <v>1</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" s="133">
+        <v>1</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>310</v>
+      </c>
+      <c r="K4" s="106" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="101" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="103">
+        <v>1</v>
+      </c>
+      <c r="F5" s="103">
+        <v>0</v>
+      </c>
+      <c r="G5" s="103">
+        <v>2</v>
+      </c>
+      <c r="H5" s="97" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="132">
+        <v>1</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>312</v>
+      </c>
+      <c r="K5" s="103" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="104" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="E6" s="106">
+        <v>0</v>
+      </c>
+      <c r="F6" s="106">
+        <v>1</v>
+      </c>
+      <c r="G6" s="106">
+        <v>3</v>
+      </c>
+      <c r="H6" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="133">
+        <v>0</v>
+      </c>
+      <c r="J6" s="99" t="s">
+        <v>312</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="135" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="152" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="158"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="154" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="136" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="154"/>
+      <c r="C13" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="154"/>
+      <c r="C14" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="104">
+        <v>12345</v>
+      </c>
+      <c r="G14" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="154"/>
+      <c r="C15" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E15" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H15" s="103" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="154"/>
+      <c r="C16" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="106" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="H16" s="106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="110" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="113"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="111"/>
+    </row>
+    <row r="18" spans="2:8" s="110" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="113"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="111"/>
+    </row>
+    <row r="19" spans="2:8" s="110" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="155" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="96" t="s">
+        <v>304</v>
+      </c>
+      <c r="H19" s="96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="155"/>
+      <c r="C20" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D20" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H20" s="103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="155"/>
+      <c r="C21" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="104">
+        <v>12345</v>
+      </c>
+      <c r="G21" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="155"/>
+      <c r="C22" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D22" s="103" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" s="103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="155"/>
+      <c r="C23" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D23" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="109" t="s">
-        <v>355</v>
-      </c>
-      <c r="H2" s="109" t="s">
-        <v>378</v>
-      </c>
-      <c r="I2" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="J2" s="109" t="s">
+      <c r="E23" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>306</v>
+      </c>
+      <c r="H23" s="106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" s="110" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="155"/>
+      <c r="C24" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="E24" s="103" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="112">
+        <v>2468000</v>
+      </c>
+      <c r="G24" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="151" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="H27" s="96" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="86" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="115" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="117">
-        <v>0</v>
-      </c>
-      <c r="F3" s="117">
-        <v>0</v>
-      </c>
-      <c r="G3" s="117">
-        <v>1</v>
-      </c>
-      <c r="H3" s="110" t="s">
-        <v>379</v>
-      </c>
-      <c r="I3" s="155">
-        <v>0</v>
-      </c>
-      <c r="J3" s="110" t="s">
+    <row r="28" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="151"/>
+      <c r="C28" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="103">
+        <v>13.5</v>
+      </c>
+      <c r="G28" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="K3" s="117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="118" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="119" t="s">
-        <v>308</v>
-      </c>
-      <c r="D4" s="120" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="120">
-        <v>0</v>
-      </c>
-      <c r="F4" s="120">
-        <v>0</v>
-      </c>
-      <c r="G4" s="120">
-        <v>1</v>
-      </c>
-      <c r="H4" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="I4" s="156">
-        <v>1</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>310</v>
-      </c>
-      <c r="K4" s="120" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="116" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="117">
-        <v>1</v>
-      </c>
-      <c r="F5" s="117">
-        <v>0</v>
-      </c>
-      <c r="G5" s="117">
-        <v>2</v>
-      </c>
-      <c r="H5" s="110" t="s">
-        <v>380</v>
-      </c>
-      <c r="I5" s="155">
-        <v>1</v>
-      </c>
-      <c r="J5" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="K5" s="117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" s="72" customFormat="1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="118" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" s="119" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>351</v>
-      </c>
-      <c r="E6" s="120">
-        <v>0</v>
-      </c>
-      <c r="F6" s="120">
-        <v>1</v>
-      </c>
-      <c r="G6" s="120">
-        <v>3</v>
-      </c>
-      <c r="H6" s="113" t="s">
-        <v>380</v>
-      </c>
-      <c r="I6" s="156">
-        <v>0</v>
-      </c>
-      <c r="J6" s="113" t="s">
-        <v>312</v>
-      </c>
-      <c r="K6" s="120" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="134" t="s">
+      <c r="H28" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
-    </row>
-    <row r="12" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="123" t="s">
-        <v>358</v>
-      </c>
-      <c r="C12" s="109" t="s">
-        <v>321</v>
-      </c>
-      <c r="D12" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
-      <c r="C13" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E13" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="110" t="s">
+    </row>
+    <row r="29" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="151"/>
+      <c r="C29" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="106" t="s">
+        <v>325</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="G29" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="H13" s="117" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="123"/>
-      <c r="C14" s="120" t="s">
-        <v>323</v>
-      </c>
-      <c r="D14" s="120" t="s">
-        <v>320</v>
-      </c>
-      <c r="E14" s="120" t="s">
-        <v>174</v>
-      </c>
-      <c r="F14" s="118">
-        <v>12345</v>
-      </c>
-      <c r="G14" s="113" t="s">
+      <c r="H29" s="106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="151"/>
+      <c r="C30" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="103" t="s">
+        <v>325</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>375</v>
+      </c>
+      <c r="F30" s="92">
+        <v>25000000</v>
+      </c>
+      <c r="G30" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="H14" s="120" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="123"/>
-      <c r="C15" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="117" t="s">
-        <v>320</v>
-      </c>
-      <c r="E15" s="117" t="s">
-        <v>336</v>
-      </c>
-      <c r="F15" s="117" t="s">
-        <v>337</v>
-      </c>
-      <c r="G15" s="110" t="s">
+      <c r="H30" s="103" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="151"/>
+      <c r="C31" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" s="106" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>334</v>
+      </c>
+      <c r="F31" s="104" t="s">
+        <v>335</v>
+      </c>
+      <c r="G31" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="H15" s="117" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="123"/>
-      <c r="C16" s="120" t="s">
-        <v>323</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>320</v>
-      </c>
-      <c r="E16" s="120" t="s">
+      <c r="H31" s="106" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="151"/>
+      <c r="C32" s="103" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="E32" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="F16" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="G16" s="113" t="s">
+      <c r="F32" s="112">
+        <v>2468000</v>
+      </c>
+      <c r="G32" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="H16" s="120" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="126" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="129"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="127"/>
-    </row>
-    <row r="18" spans="2:8" s="126" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="129"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="127"/>
-    </row>
-    <row r="19" spans="2:8" s="126" customFormat="1" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="111" t="s">
-        <v>363</v>
-      </c>
-      <c r="C19" s="109" t="s">
-        <v>321</v>
-      </c>
-      <c r="D19" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="H19" s="109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="111"/>
-      <c r="C20" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="117" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="111"/>
-      <c r="C21" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="120" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="120" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="118">
-        <v>12345</v>
-      </c>
-      <c r="G21" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" s="120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="111"/>
-      <c r="C22" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="117" t="s">
-        <v>336</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>337</v>
-      </c>
-      <c r="G22" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H22" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="111"/>
-      <c r="C23" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="D23" s="120" t="s">
-        <v>362</v>
-      </c>
-      <c r="E23" s="120" t="s">
-        <v>338</v>
-      </c>
-      <c r="F23" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="G23" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="H23" s="120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="126" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111"/>
-      <c r="C24" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" s="127" t="s">
-        <v>343</v>
-      </c>
-      <c r="E24" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="F24" s="128">
-        <v>2468000</v>
-      </c>
-      <c r="G24" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H24" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="145" t="s">
-        <v>385</v>
-      </c>
-      <c r="C27" s="109" t="s">
-        <v>321</v>
-      </c>
-      <c r="D27" s="109" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="109" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="H27" s="109" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="145"/>
-      <c r="C28" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="D28" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="97" t="s">
-        <v>381</v>
-      </c>
-      <c r="F28" s="117">
-        <v>13.5</v>
-      </c>
-      <c r="G28" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H28" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="145"/>
-      <c r="C29" s="120" t="s">
-        <v>330</v>
-      </c>
-      <c r="D29" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="E29" s="120" t="s">
-        <v>382</v>
-      </c>
-      <c r="F29" s="118" t="s">
-        <v>377</v>
-      </c>
-      <c r="G29" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="H29" s="120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="145"/>
-      <c r="C30" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="D30" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="E30" s="146" t="s">
-        <v>384</v>
-      </c>
-      <c r="F30" s="98">
-        <v>25000000</v>
-      </c>
-      <c r="G30" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H30" s="117" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="145"/>
-      <c r="C31" s="120" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="120" t="s">
-        <v>362</v>
-      </c>
-      <c r="E31" s="120" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31" s="118" t="s">
-        <v>339</v>
-      </c>
-      <c r="G31" s="113" t="s">
-        <v>306</v>
-      </c>
-      <c r="H31" s="120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="145"/>
-      <c r="C32" s="117" t="s">
-        <v>330</v>
-      </c>
-      <c r="D32" s="127" t="s">
-        <v>343</v>
-      </c>
-      <c r="E32" s="117" t="s">
-        <v>342</v>
-      </c>
-      <c r="F32" s="128">
-        <v>2468000</v>
-      </c>
-      <c r="G32" s="110" t="s">
-        <v>306</v>
-      </c>
-      <c r="H32" s="117" t="s">
-        <v>344</v>
+      <c r="H32" s="103" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
@@ -7662,71 +7691,71 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="134" t="s">
-        <v>334</v>
-      </c>
-      <c r="C35" s="134"/>
-      <c r="D35" s="134"/>
-      <c r="E35" s="134"/>
-      <c r="F35" s="134"/>
-      <c r="G35" s="134"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
-      <c r="K35" s="134"/>
-      <c r="L35" s="134"/>
-      <c r="M35" s="134"/>
+      <c r="B35" s="152" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="152"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="121" t="s">
-        <v>357</v>
-      </c>
-      <c r="C36" s="89" t="s">
+      <c r="B36" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="I36" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36" s="96" t="s">
+        <v>153</v>
+      </c>
+      <c r="L36" s="129" t="s">
+        <v>304</v>
+      </c>
+      <c r="M36" s="86" t="s">
         <v>321</v>
       </c>
-      <c r="D36" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="J36" s="147" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36" s="109" t="s">
-        <v>153</v>
-      </c>
-      <c r="L36" s="150" t="s">
-        <v>304</v>
-      </c>
-      <c r="M36" s="89" t="s">
+    </row>
+    <row r="37" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="159"/>
+      <c r="C37" s="107" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="121"/>
-      <c r="C37" s="122" t="s">
+      <c r="D37" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" s="92" t="s">
         <v>323</v>
       </c>
-      <c r="D37" s="122" t="s">
-        <v>307</v>
-      </c>
-      <c r="E37" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="F37" s="97" t="s">
+      <c r="F37" s="91" t="s">
         <v>54</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -7738,760 +7767,1091 @@
       <c r="I37" s="8">
         <v>6.9</v>
       </c>
-      <c r="J37" s="148" t="s">
+      <c r="J37" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="K37" s="152">
+      <c r="K37" s="131">
         <v>1</v>
       </c>
-      <c r="L37" s="151" t="s">
+      <c r="L37" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="M37" s="95" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="159"/>
+      <c r="C38" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="M37" s="102" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="121"/>
-      <c r="C38" s="122" t="s">
+      <c r="D38" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E38" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="122" t="s">
-        <v>307</v>
-      </c>
-      <c r="E38" s="98" t="s">
+      <c r="F38" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="93">
+        <v>50000000</v>
+      </c>
+      <c r="I38" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="131">
+        <v>0</v>
+      </c>
+      <c r="L38" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="M38" s="95" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B39" s="159"/>
+      <c r="C39" s="72" t="s">
         <v>328</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="100">
-        <v>50000000</v>
-      </c>
-      <c r="I38" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="K38" s="152">
-        <v>0</v>
-      </c>
-      <c r="L38" s="151" t="s">
-        <v>325</v>
-      </c>
-      <c r="M38" s="102" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="121"/>
-      <c r="C39" s="72" t="s">
-        <v>330</v>
       </c>
       <c r="D39" s="72" t="s">
         <v>309</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F39" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H39" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I39" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="K39" s="152"/>
-      <c r="L39" s="151" t="s">
-        <v>325</v>
-      </c>
-      <c r="M39" s="102" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="G39" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="131"/>
+      <c r="L39" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" s="95" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="121"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="72" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D40" s="72" t="s">
         <v>311</v>
       </c>
       <c r="E40" s="72" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F40" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="G40" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I40" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="K40" s="152"/>
-      <c r="L40" s="151" t="s">
-        <v>325</v>
-      </c>
-      <c r="M40" s="102" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="G40" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="128" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="131"/>
+      <c r="L40" s="130" t="s">
+        <v>324</v>
+      </c>
+      <c r="M40" s="95" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="121"/>
-      <c r="K41" s="153" t="s">
-        <v>386</v>
+      <c r="B41" s="159"/>
+      <c r="K41" s="156" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="K42" s="154"/>
+      <c r="K42" s="157"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>356</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="K43" s="157"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="K44" s="157"/>
     </row>
     <row r="46" spans="2:13" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="134" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="125"/>
+      <c r="B46" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="109"/>
     </row>
     <row r="47" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="136" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="89" t="s">
+      <c r="B47" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="J47" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="K47" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" s="137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="150"/>
+      <c r="C48" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="91" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="F47" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="J47" s="89" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="136"/>
-      <c r="C48" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E48" s="97" t="s">
+      <c r="E48" s="91" t="s">
         <v>87</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="98">
+      <c r="G48" s="92">
         <v>95000000</v>
       </c>
-      <c r="H48" s="97">
+      <c r="H48" s="91">
         <v>2</v>
       </c>
-      <c r="I48" s="92" t="s">
+      <c r="I48" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J48" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K48" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="J48" s="93" t="s">
+      <c r="L48" s="90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="136"/>
-      <c r="C49" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D49" s="138" t="s">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B49" s="150"/>
+      <c r="C49" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D49" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F49" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="119">
+        <v>19000000</v>
+      </c>
+      <c r="H49" s="118">
+        <v>3</v>
+      </c>
+      <c r="I49" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J49" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K49" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="L49" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B50" s="150"/>
+      <c r="C50" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D50" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E50" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="92">
+        <v>300000000</v>
+      </c>
+      <c r="H50" s="91">
+        <v>5</v>
+      </c>
+      <c r="I50" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K50" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L50" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B51" s="150"/>
+      <c r="C51" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D51" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="E51" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="G51" s="119">
+        <v>5000000000</v>
+      </c>
+      <c r="H51" s="118">
+        <v>4</v>
+      </c>
+      <c r="I51" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="L51" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B52" s="150"/>
+      <c r="C52" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E52" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="92">
+        <v>3</v>
+      </c>
+      <c r="H52" s="91">
+        <v>2</v>
+      </c>
+      <c r="I52" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J52" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L52" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B56" s="150" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="E49" s="138" t="s">
+      <c r="D56" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E56" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="F56" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="I56" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="L56" s="137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B57" s="150"/>
+      <c r="C57" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="E57" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="F49" s="114" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="139">
-        <v>19000000</v>
-      </c>
-      <c r="H49" s="138">
+      <c r="F57" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" s="92">
+        <v>1300000</v>
+      </c>
+      <c r="H57" s="91">
+        <v>2</v>
+      </c>
+      <c r="I57" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J57" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K57" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L57" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="150"/>
+      <c r="C58" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D58" s="118" t="s">
+        <v>353</v>
+      </c>
+      <c r="E58" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="100" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" s="119">
+        <v>25000000</v>
+      </c>
+      <c r="H58" s="118">
         <v>3</v>
       </c>
-      <c r="I49" s="140" t="s">
+      <c r="I58" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J58" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K58" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="J49" s="141" t="s">
+      <c r="L58" s="121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="136"/>
-      <c r="C50" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D50" s="97" t="s">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="150"/>
+      <c r="C59" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D59" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" s="91" t="s">
+        <v>358</v>
+      </c>
+      <c r="F59" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="G59" s="92">
+        <v>6.9</v>
+      </c>
+      <c r="H59" s="91">
+        <v>5</v>
+      </c>
+      <c r="I59" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J59" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K59" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L59" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B63" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="E50" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="98">
-        <v>300000000</v>
-      </c>
-      <c r="H50" s="97">
+      <c r="D63" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E63" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="L63" s="137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="150"/>
+      <c r="C64" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E64" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G64" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="H64" s="91">
         <v>5</v>
       </c>
-      <c r="I50" s="92" t="s">
+      <c r="I64" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J64" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="J50" s="93" t="s">
+      <c r="L64" s="90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="136"/>
-      <c r="C51" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D51" s="138" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="150"/>
+      <c r="C65" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D65" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" s="118" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" s="100" t="s">
+        <v>362</v>
+      </c>
+      <c r="G65" s="119">
+        <v>90000</v>
+      </c>
+      <c r="H65" s="118">
+        <v>3</v>
+      </c>
+      <c r="I65" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J65" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="L65" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="150"/>
+      <c r="C66" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D66" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="E66" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="G66" s="92">
+        <v>18</v>
+      </c>
+      <c r="H66" s="91">
+        <v>2</v>
+      </c>
+      <c r="I66" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J66" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L66" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="150" t="s">
+        <v>365</v>
+      </c>
+      <c r="C70" s="86" t="s">
         <v>320</v>
       </c>
-      <c r="E51" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="139">
-        <v>5000000000</v>
-      </c>
-      <c r="H51" s="138">
-        <v>4</v>
-      </c>
-      <c r="I51" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="J51" s="141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="136"/>
-      <c r="C52" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D52" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E52" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G52" s="98">
-        <v>3</v>
-      </c>
-      <c r="H52" s="97">
-        <v>2</v>
-      </c>
-      <c r="I52" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="J52" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="136" t="s">
-        <v>368</v>
-      </c>
-      <c r="C56" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D56" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="E56" s="89" t="s">
+      <c r="D70" s="86" t="s">
+        <v>318</v>
+      </c>
+      <c r="E70" s="86" t="s">
         <v>317</v>
       </c>
-      <c r="F56" s="89" t="s">
+      <c r="F70" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="89" t="s">
+      <c r="G70" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="H56" s="89" t="s">
+      <c r="H70" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="I56" s="89" t="s">
+      <c r="I70" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="J56" s="89" t="s">
+      <c r="L70" s="137" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="136"/>
-      <c r="C57" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D57" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="E57" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="G57" s="98">
-        <v>1300000</v>
-      </c>
-      <c r="H57" s="97">
-        <v>2</v>
-      </c>
-      <c r="I57" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="J57" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="136"/>
-      <c r="C58" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D58" s="138" t="s">
-        <v>362</v>
-      </c>
-      <c r="E58" s="138" t="s">
-        <v>87</v>
-      </c>
-      <c r="F58" s="114" t="s">
-        <v>366</v>
-      </c>
-      <c r="G58" s="139">
-        <v>25000000</v>
-      </c>
-      <c r="H58" s="138">
-        <v>3</v>
-      </c>
-      <c r="I58" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="J58" s="141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="136"/>
-      <c r="C59" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D59" s="97" t="s">
-        <v>362</v>
-      </c>
-      <c r="E59" s="97" t="s">
-        <v>367</v>
-      </c>
-      <c r="F59" s="90" t="s">
-        <v>364</v>
-      </c>
-      <c r="G59" s="98">
-        <v>6.9</v>
-      </c>
-      <c r="H59" s="97">
-        <v>5</v>
-      </c>
-      <c r="I59" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="J59" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="136" t="s">
-        <v>369</v>
-      </c>
-      <c r="C63" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="E63" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="J63" s="89" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B64" s="136"/>
-      <c r="C64" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D64" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E64" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="G64" s="98" t="s">
-        <v>373</v>
-      </c>
-      <c r="H64" s="97">
-        <v>5</v>
-      </c>
-      <c r="I64" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="J64" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="136"/>
-      <c r="C65" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65" s="138" t="s">
-        <v>320</v>
-      </c>
-      <c r="E65" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="F65" s="114" t="s">
-        <v>371</v>
-      </c>
-      <c r="G65" s="139">
-        <v>90000</v>
-      </c>
-      <c r="H65" s="138">
-        <v>3</v>
-      </c>
-      <c r="I65" s="140" t="s">
-        <v>306</v>
-      </c>
-      <c r="J65" s="141" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B66" s="136"/>
-      <c r="C66" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D66" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="E66" s="97" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="90" t="s">
-        <v>372</v>
-      </c>
-      <c r="G66" s="98">
-        <v>18</v>
-      </c>
-      <c r="H66" s="97">
-        <v>2</v>
-      </c>
-      <c r="I66" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="J66" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="136" t="s">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="150"/>
+      <c r="C71" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D71" s="91" t="s">
         <v>374</v>
       </c>
-      <c r="C70" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D70" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="E70" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="F70" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G70" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="J70" s="89" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="136"/>
-      <c r="C71" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D71" s="97" t="s">
-        <v>383</v>
-      </c>
-      <c r="E71" s="97" t="s">
+      <c r="E71" s="91" t="s">
         <v>104</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G71" s="98">
+      <c r="G71" s="92">
         <v>25000000</v>
       </c>
-      <c r="H71" s="97">
+      <c r="H71" s="91">
         <v>5</v>
       </c>
-      <c r="I71" s="92" t="s">
+      <c r="I71" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J71" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K71" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="J71" s="93" t="s">
+      <c r="L71" s="90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="136"/>
-      <c r="C72" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D72" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="E72" s="138" t="s">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="150"/>
+      <c r="C72" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D72" s="118" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="F72" s="114" t="s">
+      <c r="F72" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="G72" s="139">
+      <c r="G72" s="119">
         <v>15</v>
       </c>
-      <c r="H72" s="138">
+      <c r="H72" s="118">
         <v>3</v>
       </c>
       <c r="I72" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J72" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K72" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="J72" s="141" t="s">
+      <c r="L72" s="121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B73" s="136"/>
-      <c r="C73" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D73" s="97" t="s">
-        <v>383</v>
-      </c>
-      <c r="E73" s="97" t="s">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="150"/>
+      <c r="C73" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="E73" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="F73" s="90" t="s">
+      <c r="F73" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="G73" s="98">
+      <c r="G73" s="92">
         <v>190000</v>
       </c>
-      <c r="H73" s="97">
+      <c r="H73" s="91">
         <v>2</v>
       </c>
-      <c r="I73" s="92" t="s">
+      <c r="I73" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J73" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K73" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="J73" s="93" t="s">
+      <c r="L73" s="90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D74" s="97"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D74" s="91"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D75" s="73"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="136" t="s">
-        <v>375</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="D77" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="E77" s="89" t="s">
+    <row r="77" spans="2:12" s="110" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="150" t="s">
+        <v>366</v>
+      </c>
+      <c r="C77" s="134" t="s">
+        <v>320</v>
+      </c>
+      <c r="D77" s="134" t="s">
+        <v>318</v>
+      </c>
+      <c r="E77" s="134" t="s">
         <v>317</v>
       </c>
-      <c r="F77" s="89" t="s">
+      <c r="F77" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="G77" s="89" t="s">
+      <c r="G77" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="H77" s="89" t="s">
+      <c r="H77" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="I77" s="89" t="s">
+      <c r="I77" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J77" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="K77" s="137" t="s">
         <v>304</v>
       </c>
-      <c r="J77" s="89" t="s">
+      <c r="L77" s="137" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B78" s="136"/>
-      <c r="C78" s="124" t="s">
-        <v>323</v>
-      </c>
-      <c r="D78" s="97" t="s">
-        <v>376</v>
-      </c>
-      <c r="E78" s="97" t="s">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="150"/>
+      <c r="C78" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>367</v>
+      </c>
+      <c r="E78" s="91" t="s">
         <v>115</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G78" s="142">
+      <c r="G78" s="122">
         <v>13.5</v>
       </c>
-      <c r="H78" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I78" s="92" t="s">
+      <c r="H78" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="J78" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="K78" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="J78" s="93" t="s">
+      <c r="L78" s="90" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="136"/>
-      <c r="C79" s="137" t="s">
-        <v>323</v>
-      </c>
-      <c r="D79" s="138" t="s">
-        <v>376</v>
-      </c>
-      <c r="E79" s="138" t="s">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="150"/>
+      <c r="C79" s="117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D79" s="118" t="s">
+        <v>367</v>
+      </c>
+      <c r="E79" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="114" t="s">
+      <c r="F79" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="G79" s="139" t="s">
-        <v>377</v>
-      </c>
-      <c r="H79" s="143" t="s">
+      <c r="G79" s="119" t="s">
+        <v>368</v>
+      </c>
+      <c r="H79" s="123" t="s">
         <v>58</v>
       </c>
       <c r="I79" s="140" t="s">
+        <v>382</v>
+      </c>
+      <c r="J79" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="K79" s="120" t="s">
         <v>306</v>
       </c>
-      <c r="J79" s="141" t="s">
+      <c r="L79" s="121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B80" s="136"/>
-      <c r="C80" s="124"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="98"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="92"/>
-      <c r="J80" s="93"/>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="150"/>
+      <c r="C80" s="108"/>
+      <c r="E80" s="91"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="90"/>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B84" s="150" t="s">
+        <v>392</v>
+      </c>
+      <c r="C84" s="137" t="s">
+        <v>320</v>
+      </c>
+      <c r="D84" s="137" t="s">
+        <v>318</v>
+      </c>
+      <c r="E84" s="137" t="s">
+        <v>317</v>
+      </c>
+      <c r="F84" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="137" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="J84" s="137" t="s">
+        <v>380</v>
+      </c>
+      <c r="K84" s="137" t="s">
+        <v>304</v>
+      </c>
+      <c r="L84" s="137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" s="110" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="150"/>
+      <c r="C85" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="D85" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="E85" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="92">
+        <v>95000000</v>
+      </c>
+      <c r="H85" s="88">
+        <v>3</v>
+      </c>
+      <c r="I85" s="145" t="s">
+        <v>381</v>
+      </c>
+      <c r="J85" s="148" t="s">
+        <v>386</v>
+      </c>
+      <c r="K85" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L85" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" s="110" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="150"/>
+      <c r="C86" s="141" t="s">
+        <v>322</v>
+      </c>
+      <c r="D86" s="142" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" s="100" t="s">
+        <v>69</v>
+      </c>
+      <c r="G86" s="119">
+        <v>19000000</v>
+      </c>
+      <c r="H86" s="142">
+        <v>5</v>
+      </c>
+      <c r="I86" s="140" t="s">
+        <v>383</v>
+      </c>
+      <c r="J86" s="149" t="s">
+        <v>384</v>
+      </c>
+      <c r="K86" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="L86" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" s="110" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="150"/>
+      <c r="C87" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="D87" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="E87" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="92">
+        <v>300000000</v>
+      </c>
+      <c r="H87" s="88">
+        <v>5</v>
+      </c>
+      <c r="I87" s="147" t="s">
+        <v>385</v>
+      </c>
+      <c r="J87" s="148" t="s">
+        <v>387</v>
+      </c>
+      <c r="K87" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L87" s="90" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" s="110" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="150"/>
+      <c r="C88" s="141" t="s">
+        <v>322</v>
+      </c>
+      <c r="D88" s="142" t="s">
+        <v>319</v>
+      </c>
+      <c r="E88" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" s="119">
+        <v>5000000000</v>
+      </c>
+      <c r="H88" s="142">
+        <v>4</v>
+      </c>
+      <c r="I88" s="140" t="s">
+        <v>388</v>
+      </c>
+      <c r="J88" s="143" t="s">
+        <v>389</v>
+      </c>
+      <c r="K88" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="L88" s="121" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" s="110" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="150"/>
+      <c r="C89" s="144" t="s">
+        <v>322</v>
+      </c>
+      <c r="D89" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="E89" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="G89" s="92">
+        <v>15.5</v>
+      </c>
+      <c r="H89" s="146" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" s="145" t="s">
+        <v>390</v>
+      </c>
+      <c r="J89" s="148" t="s">
+        <v>391</v>
+      </c>
+      <c r="K89" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="L89" s="90" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="B56:B59"/>
     <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="B84:B89"/>
     <mergeCell ref="B70:B73"/>
     <mergeCell ref="B77:B80"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="B35:M35"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="K41:K44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8506,9 +8866,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:D1"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8519,24 +8876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="160" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
     </row>
     <row r="2" spans="1:4" s="84" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="86" t="s">
         <v>314</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="86" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="86" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8547,10 +8904,10 @@
       <c r="B3" s="72">
         <v>1</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="90" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8561,10 +8918,10 @@
       <c r="B4" s="72">
         <v>2</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="90" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8575,10 +8932,10 @@
       <c r="B5" s="72">
         <v>3</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="90" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8589,10 +8946,10 @@
       <c r="B6" s="72">
         <v>4</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="89" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="93" t="s">
+      <c r="D6" s="90" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8602,986 +8959,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>305</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="93"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="85">
-        <v>12345</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F5" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" s="97"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="93"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F6" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="G6" s="97"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" s="85">
-        <v>12345</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F9" s="97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="D10" s="72" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C11" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="85" t="s">
-        <v>339</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F11" s="97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B12" s="105" t="s">
-        <v>343</v>
-      </c>
-      <c r="C12" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="104">
-        <v>2468000</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="97" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:I17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I6"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>314</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B3" s="97">
-        <v>1</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="98">
-        <v>95000000</v>
-      </c>
-      <c r="G3" s="97">
-        <v>2</v>
-      </c>
-      <c r="H3" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B4" s="97">
-        <v>2</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="98">
-        <v>19000000</v>
-      </c>
-      <c r="G4" s="97">
-        <v>3</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="I4" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B5" s="97">
-        <v>3</v>
-      </c>
-      <c r="C5" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="98">
-        <v>300000000</v>
-      </c>
-      <c r="G5" s="97">
-        <v>5</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="I5" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="97">
-        <v>4</v>
-      </c>
-      <c r="C6" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="98">
-        <v>5000000000</v>
-      </c>
-      <c r="G6" s="97">
-        <v>4</v>
-      </c>
-      <c r="H6" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="I6" s="93" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B7" s="97">
-        <v>5</v>
-      </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="72"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:K5"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:K5"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="72" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="72" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="89" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="89" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="9">
-        <v>20000000</v>
-      </c>
-      <c r="H3" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="K3" s="102" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>327</v>
-      </c>
-      <c r="D4" s="98" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="100">
-        <v>50000000</v>
-      </c>
-      <c r="H4" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="K4" s="102" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="102" t="s">
-        <v>325</v>
-      </c>
-      <c r="K5" s="102" t="s">
-        <v>329</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection sqref="A1:G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="89" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>317</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="89" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="98">
-        <v>95000000</v>
-      </c>
-      <c r="F3" s="97">
-        <v>2</v>
-      </c>
-      <c r="G3" s="92" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="97" t="s">
-        <v>320</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>318</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="98">
-        <v>19000000</v>
-      </c>
-      <c r="F4" s="97">
-        <v>3</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" s="97">
-        <v>5</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="106">
-        <v>5000000000</v>
-      </c>
-      <c r="F6" s="97">
-        <v>4</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="100">
-        <v>25000000</v>
-      </c>
-      <c r="F7" s="97">
-        <v>5</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B8" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="100">
-        <v>1900000000</v>
-      </c>
-      <c r="F8" s="97">
-        <v>6</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="97">
-        <v>15</v>
-      </c>
-      <c r="F9" s="97">
-        <v>7</v>
-      </c>
-      <c r="G9" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>116</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="97">
-        <v>8</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
-        <v>323</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>347</v>
-      </c>
-      <c r="C11" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="107" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="97">
-        <v>9</v>
-      </c>
-      <c r="G11" s="92" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>